--- a/Prototype BackUp/PrototypeFinal/Prototype/bin/Release/Made/M/Track/M110m Hurdles.xlsx
+++ b/Prototype BackUp/PrototypeFinal/Prototype/bin/Release/Made/M/Track/M110m Hurdles.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="19095" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="M110m Hurdles" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="90">
   <si>
     <t>.</t>
   </si>
@@ -299,7 +299,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +310,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -347,13 +348,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,8 +362,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -466,6 +468,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
@@ -514,10 +527,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -564,22 +577,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -596,7 +618,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-NZ"/>
+  <c:lang val="en-US"/>
   <c:protection>
     <c:data val="1"/>
   </c:protection>
@@ -7436,11 +7458,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="61536128"/>
-        <c:axId val="61571072"/>
+        <c:axId val="88590208"/>
+        <c:axId val="88592384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61536128"/>
+        <c:axId val="88590208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34"/>
@@ -7474,8 +7496,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.49080621997722629"/>
-              <c:y val="0.943973494909781"/>
+              <c:x val="0.49080621997722668"/>
+              <c:y val="0.94397349490978133"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -7513,17 +7535,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61571072"/>
+        <c:crossAx val="88592384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61571072"/>
+        <c:axId val="88592384"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
-          <c:max val="1.8518500000000044E-4"/>
+          <c:max val="1.8518500000000061E-4"/>
           <c:min val="1.4814800000000083E-4"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -7555,7 +7577,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="7.0724328412636534E-3"/>
-              <c:y val="0.41426176769920997"/>
+              <c:y val="0.41426176769921025"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -7593,11 +7615,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61536128"/>
+        <c:crossAx val="88590208"/>
         <c:crossesAt val="14"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2.8940000000000349E-6"/>
-        <c:minorUnit val="5.7900000000001195E-7"/>
+        <c:majorUnit val="2.8940000000000374E-6"/>
+        <c:minorUnit val="5.790000000000129E-7"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -7643,7 +7665,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196850393659" l="0.74803149606299868" r="0.74803149606299868" t="0.98425196850393659" header="0.51181102362204722" footer="0.51181102362204722"/>
+    <c:pageMargins b="0.98425196850393659" l="0.74803149606299901" r="0.74803149606299901" t="0.98425196850393659" header="0.51181102362204722" footer="0.51181102362204722"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="-3" verticalDpi="-3"/>
   </c:printSettings>
 </c:chartSpace>
@@ -7976,29 +7998,29 @@
   </sheetPr>
   <dimension ref="A1:AL98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T1" zoomScale="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" workbookViewId="0">
       <selection sqref="A1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="6" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="6" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="7" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="6" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="6" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="6" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" style="6" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="6" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="6" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12" style="6" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" style="6" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="16.28515625" style="6" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9" style="6" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9" style="6" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="12" style="6" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" style="6" customWidth="1"/>
+    <col min="17" max="18" width="16.28515625" style="6" customWidth="1"/>
     <col min="19" max="19" width="7.85546875" style="1" customWidth="1"/>
     <col min="20" max="20" width="11.7109375" style="1" customWidth="1"/>
     <col min="21" max="21" width="15.42578125" style="1" customWidth="1"/>
@@ -9335,66 +9357,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="27" t="s">
         <v>72</v>
       </c>
       <c r="AH1" s="2"/>
-      <c r="AI1" s="23" t="s">
+      <c r="AI1" s="26" t="s">
         <v>71</v>
       </c>
       <c r="AJ1" s="4"/>
-      <c r="AK1" s="22" t="s">
+      <c r="AK1" s="25" t="s">
         <v>70</v>
       </c>
     </row>
@@ -9454,11 +9476,11 @@
         <v>28.71</v>
       </c>
       <c r="AH2" s="2"/>
-      <c r="AI2" s="23">
+      <c r="AI2" s="26">
         <v>38437</v>
       </c>
       <c r="AJ2" s="4"/>
-      <c r="AK2" s="22">
+      <c r="AK2" s="25">
         <f>D3</f>
         <v>1.5439814814814814E-4</v>
       </c>
@@ -9683,17 +9705,17 @@
       <c r="L6" s="15">
         <v>1.638888888888889E-4</v>
       </c>
-      <c r="M6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>0</v>
+      <c r="M6" s="24">
+        <v>1.4814814814814815E-4</v>
+      </c>
+      <c r="N6" s="23">
+        <v>1.8518518518518518E-4</v>
+      </c>
+      <c r="O6" s="22">
+        <v>2.8935185185185184E-6</v>
+      </c>
+      <c r="P6" s="22">
+        <v>5.787037037037037E-7</v>
       </c>
       <c r="Q6" s="14" t="s">
         <v>0</v>
@@ -15535,7 +15557,6 @@
       <c r="AK98" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection password="E455" sheet="1" scenarios="1"/>
   <autoFilter ref="A1:L98"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
